--- a/data/courseInfo.xlsx
+++ b/data/courseInfo.xlsx
@@ -20,12 +20,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="41">
-  <si>
-    <t>Course</t>
-  </si>
-  <si>
-    <t>Course Title</t>
-  </si>
   <si>
     <t>065</t>
   </si>
@@ -126,9 +120,6 @@
     <t>Technical Communication in Computer Science</t>
   </si>
   <si>
-    <t>Credits</t>
-  </si>
-  <si>
     <t>FYS</t>
   </si>
   <si>
@@ -142,6 +133,15 @@
   </si>
   <si>
     <t>Special Topics</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>asfd</t>
   </si>
 </sst>
 </file>
@@ -618,7 +618,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G27" sqref="G27"/>
+      <selection pane="bottomLeft" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="12.75"/>
@@ -630,13 +630,13 @@
   <sheetData>
     <row r="1" spans="1:15" ht="15.75">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>39</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
@@ -653,10 +653,10 @@
     </row>
     <row r="2" spans="1:15">
       <c r="A2" s="5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C2" s="14">
         <v>3</v>
@@ -679,7 +679,7 @@
         <v>101</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C3" s="14">
         <v>3</v>
@@ -702,7 +702,7 @@
         <v>110</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C4" s="14">
         <v>3</v>
@@ -725,7 +725,7 @@
         <v>116</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C5" s="14">
         <v>3</v>
@@ -748,7 +748,7 @@
         <v>126</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C6" s="14">
         <v>3</v>
@@ -768,10 +768,10 @@
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="12" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C7" s="14">
         <v>3</v>
@@ -794,7 +794,7 @@
         <v>283</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C8" s="14">
         <v>3</v>
@@ -817,7 +817,7 @@
         <v>325</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C9" s="14">
         <v>3</v>
@@ -840,7 +840,7 @@
         <v>380</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C10" s="14">
         <v>3</v>
@@ -860,10 +860,10 @@
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C11" s="14">
         <v>3</v>
@@ -886,7 +886,7 @@
         <v>401</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C12" s="14">
         <v>4</v>
@@ -909,7 +909,7 @@
         <v>410</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C13" s="14">
         <v>3</v>
@@ -932,7 +932,7 @@
         <v>411</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C14" s="14">
         <v>4</v>
@@ -955,7 +955,7 @@
         <v>431</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C15" s="14">
         <v>3</v>
@@ -978,7 +978,7 @@
         <v>433</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C16" s="14">
         <v>3</v>
@@ -1049,7 +1049,7 @@
         <v>520</v>
       </c>
       <c r="B19" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C19" s="14">
         <v>3</v>
@@ -1072,7 +1072,7 @@
         <v>523</v>
       </c>
       <c r="B20" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C20" s="14">
         <v>4</v>
@@ -1095,7 +1095,7 @@
         <v>524</v>
       </c>
       <c r="B21" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C21" s="14">
         <v>3</v>
@@ -1118,7 +1118,7 @@
         <v>533</v>
       </c>
       <c r="B22" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" s="14">
         <v>3</v>
@@ -1141,7 +1141,7 @@
         <v>535</v>
       </c>
       <c r="B23" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C23" s="14">
         <v>3</v>
@@ -1164,7 +1164,7 @@
         <v>541</v>
       </c>
       <c r="B24" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C24" s="14">
         <v>3</v>
@@ -1187,7 +1187,7 @@
         <v>550</v>
       </c>
       <c r="B25" s="4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C25" s="14">
         <v>3</v>
@@ -1210,7 +1210,7 @@
         <v>555</v>
       </c>
       <c r="B26" s="4" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C26" s="14">
         <v>3</v>
@@ -1233,7 +1233,7 @@
         <v>562</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C27" s="14">
         <v>3</v>
@@ -1256,7 +1256,7 @@
         <v>585</v>
       </c>
       <c r="B28" s="11" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C28" s="14">
         <v>3</v>
@@ -1276,10 +1276,10 @@
     </row>
     <row r="29" spans="1:15">
       <c r="A29" s="11" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="C29" s="14">
         <v>3</v>
@@ -1302,7 +1302,7 @@
         <v>590</v>
       </c>
       <c r="B30" s="21" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C30" s="14">
         <v>3</v>
@@ -1325,7 +1325,7 @@
         <v>651</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C31" s="14">
         <v>3</v>
@@ -1348,7 +1348,7 @@
         <v>662</v>
       </c>
       <c r="B32" s="26" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="C32" s="14">
         <v>3</v>
@@ -1371,7 +1371,7 @@
         <v>735</v>
       </c>
       <c r="B33" s="26" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C33" s="14">
         <v>3</v>
@@ -1394,7 +1394,7 @@
         <v>766</v>
       </c>
       <c r="B34" s="24" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C34" s="14">
         <v>3</v>
@@ -1417,7 +1417,7 @@
         <v>781</v>
       </c>
       <c r="B35" s="4" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C35" s="14">
         <v>3</v>
@@ -1440,7 +1440,7 @@
         <v>790</v>
       </c>
       <c r="B36" s="19" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="C36" s="14">
         <v>3</v>
@@ -1463,7 +1463,7 @@
         <v>915</v>
       </c>
       <c r="B37" s="4" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C37" s="14">
         <v>3</v>
